--- a/natmiOut/OldD4/LR-pairs_lrc2p/Reln-Vldlr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Reln-Vldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>Vldlr</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.09013426344462699</v>
+        <v>0.09865600000000001</v>
       </c>
       <c r="H2">
-        <v>0.09013426344462699</v>
+        <v>0.295968</v>
       </c>
       <c r="I2">
-        <v>0.01078426901157145</v>
+        <v>0.01009304870291239</v>
       </c>
       <c r="J2">
-        <v>0.01078426901157145</v>
+        <v>0.01488643315542961</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.190772211437936</v>
+        <v>0.196272</v>
       </c>
       <c r="N2">
-        <v>0.190772211437936</v>
+        <v>0.588816</v>
       </c>
       <c r="O2">
-        <v>0.02964800127054067</v>
+        <v>0.02813229386822481</v>
       </c>
       <c r="P2">
-        <v>0.02964800127054067</v>
+        <v>0.03089009369338271</v>
       </c>
       <c r="Q2">
-        <v>0.017195112763661</v>
+        <v>0.019363410432</v>
       </c>
       <c r="R2">
-        <v>0.017195112763661</v>
+        <v>0.174270693888</v>
       </c>
       <c r="S2">
-        <v>0.0003197320213569228</v>
+        <v>0.0002839406121366367</v>
       </c>
       <c r="T2">
-        <v>0.0003197320213569228</v>
+        <v>0.0004598433149314993</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.09013426344462699</v>
+        <v>0.09865600000000001</v>
       </c>
       <c r="H3">
-        <v>0.09013426344462699</v>
+        <v>0.295968</v>
       </c>
       <c r="I3">
-        <v>0.01078426901157145</v>
+        <v>0.01009304870291239</v>
       </c>
       <c r="J3">
-        <v>0.01078426901157145</v>
+        <v>0.01488643315542961</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.37941604908321</v>
+        <v>4.808482333333333</v>
       </c>
       <c r="N3">
-        <v>4.37941604908321</v>
+        <v>14.425447</v>
       </c>
       <c r="O3">
-        <v>0.6806071576608337</v>
+        <v>0.6892151609068061</v>
       </c>
       <c r="P3">
-        <v>0.6806071576608337</v>
+        <v>0.7567787040415452</v>
       </c>
       <c r="Q3">
-        <v>0.3947354399016936</v>
+        <v>0.4743856330773333</v>
       </c>
       <c r="R3">
-        <v>0.3947354399016936</v>
+        <v>4.269470697696</v>
       </c>
       <c r="S3">
-        <v>0.007339850679415456</v>
+        <v>0.006956282185817996</v>
       </c>
       <c r="T3">
-        <v>0.007339850679415456</v>
+        <v>0.01126573559116711</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,60 +655,60 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.09013426344462699</v>
+        <v>0.09865600000000001</v>
       </c>
       <c r="H4">
-        <v>0.09013426344462699</v>
+        <v>0.295968</v>
       </c>
       <c r="I4">
-        <v>0.01078426901157145</v>
+        <v>0.01009304870291239</v>
       </c>
       <c r="J4">
-        <v>0.01078426901157145</v>
+        <v>0.01488643315542961</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.86438416468629</v>
+        <v>0.03080033333333333</v>
       </c>
       <c r="N4">
-        <v>1.86438416468629</v>
+        <v>0.092401</v>
       </c>
       <c r="O4">
-        <v>0.2897448410686257</v>
+        <v>0.004414710343669059</v>
       </c>
       <c r="P4">
-        <v>0.2897448410686257</v>
+        <v>0.004847482995302872</v>
       </c>
       <c r="Q4">
-        <v>0.1680448934618249</v>
+        <v>0.003038637685333333</v>
       </c>
       <c r="R4">
-        <v>0.1680448934618249</v>
+        <v>0.027347739168</v>
       </c>
       <c r="S4">
-        <v>0.003124686310799076</v>
+        <v>4.455788650790292E-05</v>
       </c>
       <c r="T4">
-        <v>0.003124686310799076</v>
+        <v>7.216173158165789E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -711,60 +717,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.18511164293208</v>
+        <v>0.09865600000000001</v>
       </c>
       <c r="H5">
-        <v>0.18511164293208</v>
+        <v>0.295968</v>
       </c>
       <c r="I5">
-        <v>0.02214800097390169</v>
+        <v>0.01009304870291239</v>
       </c>
       <c r="J5">
-        <v>0.02214800097390169</v>
+        <v>0.01488643315542961</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.190772211437936</v>
+        <v>0.072589</v>
       </c>
       <c r="N5">
-        <v>0.190772211437936</v>
+        <v>0.217767</v>
       </c>
       <c r="O5">
-        <v>0.02964800127054067</v>
+        <v>0.01040441366878908</v>
       </c>
       <c r="P5">
-        <v>0.02964800127054067</v>
+        <v>0.01142435503336674</v>
       </c>
       <c r="Q5">
-        <v>0.03531415748506248</v>
+        <v>0.007161340384000001</v>
       </c>
       <c r="R5">
-        <v>0.03531415748506248</v>
+        <v>0.06445206345599999</v>
       </c>
       <c r="S5">
-        <v>0.0006566439610141732</v>
+        <v>0.0001050122538843356</v>
       </c>
       <c r="T5">
-        <v>0.0006566439610141732</v>
+        <v>0.0001700678975481098</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,55 +779,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.18511164293208</v>
+        <v>0.09865600000000001</v>
       </c>
       <c r="H6">
-        <v>0.18511164293208</v>
+        <v>0.295968</v>
       </c>
       <c r="I6">
-        <v>0.02214800097390169</v>
+        <v>0.01009304870291239</v>
       </c>
       <c r="J6">
-        <v>0.02214800097390169</v>
+        <v>0.01488643315542961</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.37941604908321</v>
+        <v>1.868607</v>
       </c>
       <c r="N6">
-        <v>4.37941604908321</v>
+        <v>3.737214</v>
       </c>
       <c r="O6">
-        <v>0.6806071576608337</v>
+        <v>0.267833421212511</v>
       </c>
       <c r="P6">
-        <v>0.6806071576608337</v>
+        <v>0.1960593642364025</v>
       </c>
       <c r="Q6">
-        <v>0.8106808999289117</v>
+        <v>0.184349292192</v>
       </c>
       <c r="R6">
-        <v>0.8106808999289117</v>
+        <v>1.106095753152</v>
       </c>
       <c r="S6">
-        <v>0.01507408799071661</v>
+        <v>0.002703255764565523</v>
       </c>
       <c r="T6">
-        <v>0.01507408799071661</v>
+        <v>0.002918624620201231</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,60 +841,60 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.18511164293208</v>
+        <v>0.2337746666666667</v>
       </c>
       <c r="H7">
-        <v>0.18511164293208</v>
+        <v>0.7013240000000001</v>
       </c>
       <c r="I7">
-        <v>0.02214800097390169</v>
+        <v>0.02391642775070728</v>
       </c>
       <c r="J7">
-        <v>0.02214800097390169</v>
+        <v>0.03527480283780177</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.86438416468629</v>
+        <v>0.196272</v>
       </c>
       <c r="N7">
-        <v>1.86438416468629</v>
+        <v>0.588816</v>
       </c>
       <c r="O7">
-        <v>0.2897448410686257</v>
+        <v>0.02813229386822481</v>
       </c>
       <c r="P7">
-        <v>0.2897448410686257</v>
+        <v>0.03089009369338271</v>
       </c>
       <c r="Q7">
-        <v>0.3451192157816327</v>
+        <v>0.045883421376</v>
       </c>
       <c r="R7">
-        <v>0.3451192157816327</v>
+        <v>0.4129507923840001</v>
       </c>
       <c r="S7">
-        <v>0.006417269022170912</v>
+        <v>0.0006728239737610641</v>
       </c>
       <c r="T7">
-        <v>0.006417269022170912</v>
+        <v>0.001089641964675299</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -897,60 +903,60 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.082693175809901</v>
+        <v>0.2337746666666667</v>
       </c>
       <c r="H8">
-        <v>8.082693175809901</v>
+        <v>0.7013240000000001</v>
       </c>
       <c r="I8">
-        <v>0.9670677300145268</v>
+        <v>0.02391642775070728</v>
       </c>
       <c r="J8">
-        <v>0.9670677300145268</v>
+        <v>0.03527480283780177</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.190772211437936</v>
+        <v>4.808482333333333</v>
       </c>
       <c r="N8">
-        <v>0.190772211437936</v>
+        <v>14.425447</v>
       </c>
       <c r="O8">
-        <v>0.02964800127054067</v>
+        <v>0.6892151609068061</v>
       </c>
       <c r="P8">
-        <v>0.02964800127054067</v>
+        <v>0.7567787040415452</v>
       </c>
       <c r="Q8">
-        <v>1.541953251523569</v>
+        <v>1.124101354647556</v>
       </c>
       <c r="R8">
-        <v>1.541953251523569</v>
+        <v>10.116912191828</v>
       </c>
       <c r="S8">
-        <v>0.02867162528816957</v>
+        <v>0.01648356460051972</v>
       </c>
       <c r="T8">
-        <v>0.02867162528816957</v>
+        <v>0.02669521957691264</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -959,60 +965,60 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.082693175809901</v>
+        <v>0.2337746666666667</v>
       </c>
       <c r="H9">
-        <v>8.082693175809901</v>
+        <v>0.7013240000000001</v>
       </c>
       <c r="I9">
-        <v>0.9670677300145268</v>
+        <v>0.02391642775070728</v>
       </c>
       <c r="J9">
-        <v>0.9670677300145268</v>
+        <v>0.03527480283780177</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>4.37941604908321</v>
+        <v>0.03080033333333333</v>
       </c>
       <c r="N9">
-        <v>4.37941604908321</v>
+        <v>0.092401</v>
       </c>
       <c r="O9">
-        <v>0.6806071576608337</v>
+        <v>0.004414710343669059</v>
       </c>
       <c r="P9">
-        <v>0.6806071576608337</v>
+        <v>0.004847482995302872</v>
       </c>
       <c r="Q9">
-        <v>35.39747621395722</v>
+        <v>0.007200337658222223</v>
       </c>
       <c r="R9">
-        <v>35.39747621395722</v>
+        <v>0.06480303892400001</v>
       </c>
       <c r="S9">
-        <v>0.6581932189907016</v>
+        <v>0.0001055841009746612</v>
       </c>
       <c r="T9">
-        <v>0.6581932189907016</v>
+        <v>0.0001709940069189055</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1021,55 +1027,427 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.2337746666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.7013240000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.02391642775070728</v>
+      </c>
+      <c r="J10">
+        <v>0.03527480283780177</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.072589</v>
+      </c>
+      <c r="N10">
+        <v>0.217767</v>
+      </c>
+      <c r="O10">
+        <v>0.01040441366878908</v>
+      </c>
+      <c r="P10">
+        <v>0.01142435503336674</v>
+      </c>
+      <c r="Q10">
+        <v>0.01696946927866667</v>
+      </c>
+      <c r="R10">
+        <v>0.152725223508</v>
+      </c>
+      <c r="S10">
+        <v>0.0002488364077980653</v>
+      </c>
+      <c r="T10">
+        <v>0.00040299187135106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>8.082693175809901</v>
-      </c>
-      <c r="H10">
-        <v>8.082693175809901</v>
-      </c>
-      <c r="I10">
-        <v>0.9670677300145268</v>
-      </c>
-      <c r="J10">
-        <v>0.9670677300145268</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.86438416468629</v>
-      </c>
-      <c r="N10">
-        <v>1.86438416468629</v>
-      </c>
-      <c r="O10">
-        <v>0.2897448410686257</v>
-      </c>
-      <c r="P10">
-        <v>0.2897448410686257</v>
-      </c>
-      <c r="Q10">
-        <v>15.06924516499792</v>
-      </c>
-      <c r="R10">
-        <v>15.06924516499792</v>
-      </c>
-      <c r="S10">
-        <v>0.2802028857356557</v>
-      </c>
-      <c r="T10">
-        <v>0.2802028857356557</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.2337746666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.7013240000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.02391642775070728</v>
+      </c>
+      <c r="J11">
+        <v>0.03527480283780177</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.868607</v>
+      </c>
+      <c r="N11">
+        <v>3.737214</v>
+      </c>
+      <c r="O11">
+        <v>0.267833421212511</v>
+      </c>
+      <c r="P11">
+        <v>0.1960593642364025</v>
+      </c>
+      <c r="Q11">
+        <v>0.436832978556</v>
+      </c>
+      <c r="R11">
+        <v>2.620997871336</v>
+      </c>
+      <c r="S11">
+        <v>0.006405618667653768</v>
+      </c>
+      <c r="T11">
+        <v>0.00691595541794386</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>9.4422175</v>
+      </c>
+      <c r="H12">
+        <v>18.884435</v>
+      </c>
+      <c r="I12">
+        <v>0.9659905235463803</v>
+      </c>
+      <c r="J12">
+        <v>0.9498387640067686</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.196272</v>
+      </c>
+      <c r="N12">
+        <v>0.588816</v>
+      </c>
+      <c r="O12">
+        <v>0.02813229386822481</v>
+      </c>
+      <c r="P12">
+        <v>0.03089009369338271</v>
+      </c>
+      <c r="Q12">
+        <v>1.85324291316</v>
+      </c>
+      <c r="R12">
+        <v>11.11945747896</v>
+      </c>
+      <c r="S12">
+        <v>0.02717552928232711</v>
+      </c>
+      <c r="T12">
+        <v>0.02934060841377591</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>9.4422175</v>
+      </c>
+      <c r="H13">
+        <v>18.884435</v>
+      </c>
+      <c r="I13">
+        <v>0.9659905235463803</v>
+      </c>
+      <c r="J13">
+        <v>0.9498387640067686</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.808482333333333</v>
+      </c>
+      <c r="N13">
+        <v>14.425447</v>
+      </c>
+      <c r="O13">
+        <v>0.6892151609068061</v>
+      </c>
+      <c r="P13">
+        <v>0.7567787040415452</v>
+      </c>
+      <c r="Q13">
+        <v>45.40273603624083</v>
+      </c>
+      <c r="R13">
+        <v>272.416416217445</v>
+      </c>
+      <c r="S13">
+        <v>0.6657753141204683</v>
+      </c>
+      <c r="T13">
+        <v>0.7188177488734655</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>9.4422175</v>
+      </c>
+      <c r="H14">
+        <v>18.884435</v>
+      </c>
+      <c r="I14">
+        <v>0.9659905235463803</v>
+      </c>
+      <c r="J14">
+        <v>0.9498387640067686</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.03080033333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.092401</v>
+      </c>
+      <c r="O14">
+        <v>0.004414710343669059</v>
+      </c>
+      <c r="P14">
+        <v>0.004847482995302872</v>
+      </c>
+      <c r="Q14">
+        <v>0.2908234464058333</v>
+      </c>
+      <c r="R14">
+        <v>1.744940678435</v>
+      </c>
+      <c r="S14">
+        <v>0.004264568356186495</v>
+      </c>
+      <c r="T14">
+        <v>0.004604327256802308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>9.4422175</v>
+      </c>
+      <c r="H15">
+        <v>18.884435</v>
+      </c>
+      <c r="I15">
+        <v>0.9659905235463803</v>
+      </c>
+      <c r="J15">
+        <v>0.9498387640067686</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.072589</v>
+      </c>
+      <c r="N15">
+        <v>0.217767</v>
+      </c>
+      <c r="O15">
+        <v>0.01040441366878908</v>
+      </c>
+      <c r="P15">
+        <v>0.01142435503336674</v>
+      </c>
+      <c r="Q15">
+        <v>0.6854011261075</v>
+      </c>
+      <c r="R15">
+        <v>4.112406756645</v>
+      </c>
+      <c r="S15">
+        <v>0.01005056500710668</v>
+      </c>
+      <c r="T15">
+        <v>0.01085129526446757</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>9.4422175</v>
+      </c>
+      <c r="H16">
+        <v>18.884435</v>
+      </c>
+      <c r="I16">
+        <v>0.9659905235463803</v>
+      </c>
+      <c r="J16">
+        <v>0.9498387640067686</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.868607</v>
+      </c>
+      <c r="N16">
+        <v>3.737214</v>
+      </c>
+      <c r="O16">
+        <v>0.267833421212511</v>
+      </c>
+      <c r="P16">
+        <v>0.1960593642364025</v>
+      </c>
+      <c r="Q16">
+        <v>17.6437937160225</v>
+      </c>
+      <c r="R16">
+        <v>70.57517486409</v>
+      </c>
+      <c r="S16">
+        <v>0.2587245467802917</v>
+      </c>
+      <c r="T16">
+        <v>0.1862247841982574</v>
       </c>
     </row>
   </sheetData>
